--- a/чистый бланк/ЗАКАЗ КРЫМ 03,01,25ц-выезд 07,01.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 03,01,25ц-выезд 07,01.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПАПА\Работа\ostankino_ki\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE767EC-7826-4E70-94BE-BC082C1296BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5DBF6-18F5-4DB1-BE45-56E687F7B6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Дист 1" sheetId="1" r:id="rId1"/>
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$150</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -151,9 +151,6 @@
     <t>ДОМАШНИЙ РЕЦЕПТ СО ШПИКОМ Коровино 0.5кг</t>
   </si>
   <si>
-    <t>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</t>
-  </si>
-  <si>
     <t>ФИЛЕЙНАЯ Папа может вар п/о</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>С ГОВЯДИНОЙ СН сос п/о мгс 1*6</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ СН сос п/о мгс 1кг 6шт.</t>
   </si>
   <si>
     <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О</t>
@@ -1879,11 +1873,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1675"/>
+  <dimension ref="A1:M1674"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
+      <pane ySplit="9" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2022,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D150,4)</f>
+        <f>RIGHT(D11:D149,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2059,7 +2053,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D151,4)</f>
+        <f>RIGHT(D12:D150,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2084,7 +2078,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D151,4)</f>
+        <f>RIGHT(D13:D150,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2108,7 +2102,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D152,4)</f>
+        <f>RIGHT(D14:D151,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2132,7 +2126,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D153,4)</f>
+        <f>RIGHT(D15:D152,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2156,7 +2150,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D153,4)</f>
+        <f>RIGHT(D16:D152,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2186,7 +2180,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D154,4)</f>
+        <f>RIGHT(D17:D153,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2212,7 +2206,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D155,4)</f>
+        <f>RIGHT(D18:D154,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2238,7 +2232,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D156,4)</f>
+        <f>RIGHT(D19:D155,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2262,7 +2256,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D157,4)</f>
+        <f>RIGHT(D20:D156,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2292,7 +2286,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D158,4)</f>
+        <f>RIGHT(D21:D157,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2322,7 +2316,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D159,4)</f>
+        <f>RIGHT(D22:D158,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2352,7 +2346,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D160,4)</f>
+        <f>RIGHT(D23:D159,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2382,7 +2376,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D164,4)</f>
+        <f>RIGHT(D24:D163,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2406,7 +2400,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D164,4)</f>
+        <f>RIGHT(D25:D163,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2430,17 +2424,17 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D165,4)</f>
-        <v>6747</v>
+        <f>RIGHT(D26:D164,4)</f>
+        <v>5247</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="28">
-        <v>1001010856747</v>
+        <v>1001010855247</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="23">
@@ -2460,11 +2454,11 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D168,4)</f>
+        <f>RIGHT(D27:D167,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>23</v>
@@ -2490,11 +2484,11 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D169,4)</f>
+        <f>RIGHT(D28:D168,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>26</v>
@@ -2520,11 +2514,11 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D170,4)</f>
+        <f>RIGHT(D29:D169,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>26</v>
@@ -2546,11 +2540,11 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D171,4)</f>
+        <f>RIGHT(D30:D170,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>23</v>
@@ -2570,11 +2564,11 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D171,4)</f>
+        <f>RIGHT(D31:D170,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>23</v>
@@ -2600,11 +2594,11 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D172,4)</f>
+        <f>RIGHT(D32:D171,4)</f>
         <v>6159</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>23</v>
@@ -2624,11 +2618,11 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D172,4)</f>
+        <f>RIGHT(D33:D171,4)</f>
         <v>6158</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>26</v>
@@ -2652,11 +2646,11 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D174,4)</f>
+        <f>RIGHT(D34:D173,4)</f>
         <v>6340</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>26</v>
@@ -2680,11 +2674,11 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D172,4)</f>
+        <f>RIGHT(D35:D171,4)</f>
         <v>6353</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>26</v>
@@ -2710,11 +2704,11 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D173,4)</f>
+        <f>RIGHT(D36:D172,4)</f>
         <v/>
       </c>
       <c r="B36" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="74"/>
       <c r="D36" s="74"/>
@@ -2727,11 +2721,11 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D176,4)</f>
+        <f>RIGHT(D37:D175,4)</f>
         <v>6870</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>23</v>
@@ -2753,16 +2747,16 @@
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
         <f>RIGHT(D38:D177,4)</f>
-        <v>6869</v>
+        <v>7038</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="28">
-        <v>1001023856869</v>
+        <v>1001023857038</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="23"/>
@@ -2778,21 +2772,23 @@
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
         <f>RIGHT(D39:D178,4)</f>
-        <v>7038</v>
+        <v>7040</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D39" s="28">
-        <v>1001023857038</v>
+        <v>1001025027040</v>
       </c>
       <c r="E39" s="24"/>
-      <c r="F39" s="23"/>
+      <c r="F39" s="23">
+        <v>0.27</v>
+      </c>
       <c r="G39" s="23">
-        <f>E39</f>
+        <f>F39*E39</f>
         <v>0</v>
       </c>
       <c r="H39" s="14"/>
@@ -2802,24 +2798,22 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D179,4)</f>
-        <v>7040</v>
+        <f>RIGHT(D40:D177,4)</f>
+        <v>6948</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D40" s="28">
-        <v>1001025027040</v>
+        <v>1001022656948</v>
       </c>
       <c r="E40" s="24"/>
-      <c r="F40" s="23">
-        <v>0.27</v>
-      </c>
+      <c r="F40" s="23"/>
       <c r="G40" s="23">
-        <f>F40*E40</f>
+        <f>E40</f>
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
@@ -2830,16 +2824,16 @@
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
         <f>RIGHT(D41:D178,4)</f>
-        <v>6948</v>
+        <v>6955</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="28">
-        <v>1001022656948</v>
+        <v>1001022376955</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="23"/>
@@ -2854,17 +2848,17 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D179,4)</f>
-        <v>6955</v>
+        <f>RIGHT(D42:D176,4)</f>
+        <v>6253</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="28">
-        <v>1001022376955</v>
+        <v>1001020836253</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="23"/>
@@ -2879,22 +2873,22 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D177,4)</f>
-        <v>6253</v>
+        <f>RIGHT(D43:D175,4)</f>
+        <v>6602</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D43" s="28">
-        <v>1001020836253</v>
+        <v>1001021966602</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23">
-        <f>E43</f>
+        <f>E43*0.35</f>
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
@@ -2904,22 +2898,22 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D176,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D44:D178,4)</f>
+        <v>6768</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="28">
-        <v>1001021966602</v>
+        <v>1001025176768</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23">
-        <f>E44*0.35</f>
+        <f>E44*0.41</f>
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
@@ -2930,16 +2924,16 @@
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
         <f>RIGHT(D45:D179,4)</f>
-        <v>6768</v>
+        <v>6770</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="28">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
@@ -2952,49 +2946,48 @@
       <c r="J45" s="39"/>
       <c r="K45" s="82"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D180,4)</f>
-        <v>6770</v>
+        <f>RIGHT(D46:D182,4)</f>
+        <v>6829</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D46" s="28">
-        <v>1001025486770</v>
+        <v>1001024976829</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23">
-        <f>E46*0.41</f>
+        <f>E46*1</f>
         <v>0</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="82"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D183,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D47:D187,4)</f>
+        <v>6854</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D47" s="28">
-        <v>1001024976829</v>
+        <v>1001022656854</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23">
-        <f>E47*1</f>
+        <f>E47*0.6</f>
         <v>0</v>
       </c>
       <c r="H47" s="14"/>
@@ -3004,21 +2997,21 @@
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
         <f>RIGHT(D48:D188,4)</f>
-        <v>6854</v>
+        <v>6852</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="28">
-        <v>1001022656854</v>
+        <v>1001022656852</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23">
-        <f>E48*0.6</f>
+        <f>E48*0.35</f>
         <v>0</v>
       </c>
       <c r="H48" s="14"/>
@@ -3028,229 +3021,231 @@
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
         <f>RIGHT(D49:D189,4)</f>
-        <v>6852</v>
+        <v>6759</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="28">
-        <v>1001022656852</v>
+        <v>1001020836759</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23">
-        <f>E49*0.35</f>
+        <f>E49*0.4</f>
         <v>0</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="39"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
         <f>RIGHT(D50:D190,4)</f>
-        <v>6759</v>
+        <v>6724</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="28">
-        <v>1001020836759</v>
+        <v>1001020836724</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
+      <c r="F50" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G50" s="23">
-        <f>E50*0.4</f>
+        <f>F50*E50</f>
         <v>0</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="39"/>
-    </row>
-    <row r="51" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="82"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D191,4)</f>
-        <v>6724</v>
+        <f>RIGHT(D51:D190,4)</f>
+        <v>6901</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D51" s="28">
-        <v>1001020836724</v>
+        <v>1001025526901</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="G51" s="23">
-        <f>F51*E51</f>
+        <f>E51*F51</f>
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="39"/>
-      <c r="K51" s="82"/>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D191,4)</f>
-        <v>6901</v>
-      </c>
-      <c r="B52" s="27" t="s">
+        <f>RIGHT(D52:D189,4)</f>
+        <v>6303</v>
+      </c>
+      <c r="B52" s="70" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D52" s="28">
-        <v>1001025526901</v>
+        <v>1001022726303</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23">
-        <v>0.16</v>
+        <v>1.0666666666666671</v>
       </c>
       <c r="G52" s="23">
-        <f>E52*F52</f>
+        <f>E52*1</f>
         <v>0</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="H52" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I52" s="14">
+        <v>45</v>
+      </c>
       <c r="J52" s="39"/>
+      <c r="K52" s="82"/>
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
         <f>RIGHT(D53:D190,4)</f>
-        <v>6303</v>
+        <v>6777</v>
       </c>
       <c r="B53" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D53" s="28">
-        <v>1001022726303</v>
+        <v>1001025506777</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="23">
-        <v>1.0666666666666671</v>
-      </c>
+      <c r="F53" s="23"/>
       <c r="G53" s="23">
-        <f>E53*1</f>
+        <f>E53*0.4</f>
         <v>0</v>
       </c>
-      <c r="H53" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I53" s="14">
-        <v>45</v>
-      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="39"/>
       <c r="K53" s="82"/>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D191,4)</f>
-        <v>6777</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>65</v>
+        <f>RIGHT(D54:D190,4)</f>
+        <v>6726</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="28">
-        <v>1001025506777</v>
+        <v>1001022466726</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="23"/>
+      <c r="F54" s="23">
+        <v>0.45</v>
+      </c>
       <c r="G54" s="23">
-        <f>E54*0.4</f>
+        <f>E54*0.41</f>
         <v>0</v>
       </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="H54" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I54" s="14">
+        <v>45</v>
+      </c>
       <c r="J54" s="39"/>
-      <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
         <f>RIGHT(D55:D191,4)</f>
-        <v>6726</v>
+        <v>6762</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="28">
-        <v>1001022466726</v>
+        <v>1001020846762</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="G55" s="23">
-        <f>E55*0.41</f>
+        <f>E55*F55</f>
         <v>0</v>
       </c>
-      <c r="H55" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I55" s="14">
-        <v>45</v>
-      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="39"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D192,4)</f>
-        <v>6762</v>
+        <f>RIGHT(D56:D191,4)</f>
+        <v>5820</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D56" s="28">
-        <v>1001020846762</v>
+        <v>1001022465820</v>
       </c>
       <c r="E56" s="24"/>
-      <c r="F56" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F56" s="23"/>
       <c r="G56" s="23">
-        <f>E56*F56</f>
+        <f>E56*1</f>
         <v>0</v>
       </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="I56" s="14">
+        <v>45</v>
+      </c>
       <c r="J56" s="39"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
         <f>RIGHT(D57:D192,4)</f>
-        <v>5820</v>
+        <v>6951</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="28">
-        <v>1001022465820</v>
+        <v>1001022466951</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
@@ -3259,24 +3254,22 @@
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="14">
-        <v>45</v>
-      </c>
+      <c r="I57" s="14"/>
       <c r="J57" s="39"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
         <f>RIGHT(D58:D193,4)</f>
-        <v>6951</v>
+        <v>6764</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="28">
-        <v>1001022466951</v>
+        <v>1001020846764</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23"/>
@@ -3290,17 +3283,17 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D194,4)</f>
-        <v>6764</v>
+        <f>RIGHT(D59:D195,4)</f>
+        <v>6761</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="28">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23"/>
@@ -3315,16 +3308,16 @@
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
         <f>RIGHT(D60:D196,4)</f>
-        <v>6761</v>
+        <v>6767</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="28">
-        <v>1001020836761</v>
+        <v>1001023696767</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23"/>
@@ -3338,22 +3331,22 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D197,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D61:D196,4)</f>
+        <v>6765</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D61" s="28">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23">
-        <f>E61*1</f>
+        <f>E61*0.36</f>
         <v>0</v>
       </c>
       <c r="H61" s="14"/>
@@ -3363,21 +3356,23 @@
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
         <f>RIGHT(D62:D197,4)</f>
-        <v>6765</v>
+        <v>6909</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D62" s="28">
-        <v>1001023696765</v>
+        <v>1001025766909</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="23"/>
+      <c r="F62" s="23">
+        <v>0.33</v>
+      </c>
       <c r="G62" s="23">
-        <f>E62*0.36</f>
+        <f>E62*F62</f>
         <v>0</v>
       </c>
       <c r="H62" s="14"/>
@@ -3386,104 +3381,103 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D198,4)</f>
-        <v>6909</v>
+        <f>RIGHT(D63:D196,4)</f>
+        <v>6722</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="28">
-        <v>1001025766909</v>
+        <v>1001022376722</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="G63" s="23">
-        <f>E63*F63</f>
+        <f>E63*0.41</f>
         <v>0</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="H63" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I63" s="14">
+        <v>45</v>
+      </c>
       <c r="J63" s="39"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
         <f>RIGHT(D64:D197,4)</f>
-        <v>6722</v>
+        <v>6837</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="28">
-        <v>1001022376722</v>
+        <v>1001022556837</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G64" s="23">
-        <f>E64*0.41</f>
+        <f>E64*0.4</f>
         <v>0</v>
       </c>
-      <c r="H64" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I64" s="14">
-        <v>45</v>
-      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D198,4)</f>
-        <v>6837</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D65:D199,4)</f>
+        <v>6661</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D65" s="28">
-        <v>1001022556837</v>
+        <v>1001022246661</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F65" s="23"/>
       <c r="G65" s="23">
-        <f>E65*0.4</f>
+        <f>E65*1</f>
         <v>0</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="39"/>
-    </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="82"/>
+    </row>
+    <row r="66" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="94" t="str">
         <f>RIGHT(D66:D200,4)</f>
-        <v>6661</v>
+        <v>6713</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>23</v>
+        <v>76</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="D66" s="28">
-        <v>1001022246661</v>
+        <v>1001022246713</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23">
-        <f>E66*1</f>
+        <f>E66*0.41</f>
         <v>0</v>
       </c>
       <c r="H66" s="14"/>
@@ -3491,96 +3485,97 @@
       <c r="J66" s="39"/>
       <c r="K66" s="82"/>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D201,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="28">
-        <v>1001022246713</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23">
-        <f>E67*0.41</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="82"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D67:D196,4)</f>
+        <v/>
+      </c>
+      <c r="B67" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="75"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
         <f>RIGHT(D68:D197,4)</f>
-        <v/>
-      </c>
-      <c r="B68" s="74" t="s">
+        <v>5698</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="28">
+        <v>1001034065698</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="G68" s="23">
+        <f>E68*1</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="I68" s="14">
+        <v>30</v>
+      </c>
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="94" t="str">
+        <f>RIGHT(D69:D200,4)</f>
+        <v>6528</v>
+      </c>
+      <c r="B69" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="75"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D198,4)</f>
-        <v>5698</v>
-      </c>
-      <c r="B69" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>23</v>
+      <c r="C69" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001034065698</v>
+        <v>1001031076528</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="23">
-        <v>1.013333333333333</v>
-      </c>
+      <c r="F69" s="23"/>
       <c r="G69" s="23">
-        <f>E69*1</f>
+        <f>E69*0.4</f>
         <v>0</v>
       </c>
-      <c r="H69" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="I69" s="14">
-        <v>30</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="39"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
         <f>RIGHT(D70:D201,4)</f>
-        <v>6528</v>
+        <v>6653</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="28">
-        <v>1001031076528</v>
+        <v>1001035276653</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
+      <c r="F70" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G70" s="23">
-        <f>E70*0.4</f>
+        <f>F70*E70</f>
         <v>0</v>
       </c>
       <c r="H70" s="14"/>
@@ -3589,21 +3584,21 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D202,4)</f>
-        <v>6653</v>
+        <f t="shared" ref="A71:A76" si="0">RIGHT(D71:D201,4)</f>
+        <v>6609</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="28">
-        <v>1001035276653</v>
+        <v>1001033856609</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G71" s="23">
         <f>F71*E71</f>
@@ -3613,127 +3608,127 @@
       <c r="I71" s="14"/>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D202,4)</f>
-        <v>6609</v>
+        <f t="shared" si="0"/>
+        <v>6527</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>26</v>
+        <v>82</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D72" s="28">
-        <v>1001033856609</v>
+        <v>1001031076527</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23">
-        <v>0.4</v>
+        <v>1.0166666666666671</v>
       </c>
       <c r="G72" s="23">
-        <f>F72*E72</f>
+        <f>E72*1</f>
         <v>0</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="H72" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I72" s="14">
+        <v>30</v>
+      </c>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D203,4)</f>
-        <v>6527</v>
-      </c>
-      <c r="B73" s="46" t="s">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B73" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="75"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>6666</v>
+      </c>
+      <c r="B74" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="28">
-        <v>1001031076527</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="23">
-        <v>1.0166666666666671</v>
-      </c>
-      <c r="G73" s="23">
-        <f>E73*1</f>
+      <c r="C74" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="28">
+        <v>1001302276666</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G74" s="23">
+        <f>E74*0.28</f>
         <v>0</v>
       </c>
-      <c r="H73" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I73" s="14">
-        <v>30</v>
-      </c>
-      <c r="J73" s="39"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D204,4)</f>
-        <v/>
-      </c>
-      <c r="B74" s="74" t="s">
+      <c r="H74" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I74" s="14">
+        <v>45</v>
+      </c>
+      <c r="J74" s="39"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>6785</v>
+      </c>
+      <c r="B75" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="75"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D205,4)</f>
-        <v>6666</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D75" s="28">
-        <v>1001302276666</v>
+        <v>1001300516785</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F75" s="23"/>
       <c r="G75" s="23">
-        <f>E75*0.28</f>
+        <f>E75*0.33</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I75" s="14">
-        <v>45</v>
-      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D206,4)</f>
-        <v>6785</v>
+        <f t="shared" si="0"/>
+        <v>6415</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="28">
-        <v>1001300516785</v>
+        <v>1001303636415</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="23"/>
+      <c r="F76" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G76" s="23">
-        <f>E76*0.33</f>
+        <f>F76*E76</f>
         <v>0</v>
       </c>
       <c r="H76" s="14"/>
@@ -3742,24 +3737,22 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D207,4)</f>
-        <v>6415</v>
+        <f>RIGHT(D77:D206,4)</f>
+        <v>6786</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D77" s="28">
-        <v>1001303636415</v>
+        <v>1001300516786</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F77" s="23"/>
       <c r="G77" s="23">
-        <f>F77*E77</f>
+        <f>E77</f>
         <v>0</v>
       </c>
       <c r="H77" s="14"/>
@@ -3769,16 +3762,16 @@
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
         <f>RIGHT(D78:D207,4)</f>
-        <v>6786</v>
+        <v>4903</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="28">
-        <v>1001300516786</v>
+        <v>1001040434903</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23"/>
@@ -3792,17 +3785,17 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D208,4)</f>
-        <v>4903</v>
+        <f>RIGHT(D79:D207,4)</f>
+        <v>6794</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="28">
-        <v>1001040434903</v>
+        <v>1001303636794</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
@@ -3811,125 +3804,125 @@
         <v>0</v>
       </c>
       <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="I79" s="14">
+        <v>45</v>
+      </c>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D208,4)</f>
-        <v>6794</v>
+        <f>RIGHT(D80:D205,4)</f>
+        <v>6773</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001303636794</v>
+        <v>1001303106773</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
+      <c r="F80" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G80" s="23">
-        <f>E80</f>
+        <f>E80*0.28</f>
         <v>0</v>
       </c>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="I80" s="14">
         <v>45</v>
       </c>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D206,4)</f>
-        <v>6773</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="28">
-        <v>1001303106773</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G81" s="23">
-        <f>E81*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I81" s="14">
-        <v>45</v>
-      </c>
-      <c r="J81" s="39"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D81:D208,4)</f>
+        <v/>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="75"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
         <f>RIGHT(D82:D209,4)</f>
-        <v/>
-      </c>
-      <c r="B82" s="74" t="s">
+        <v>6683</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="28">
+        <v>1001300386683</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G82" s="23">
+        <f>E82*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I82" s="14">
+        <v>45</v>
+      </c>
+      <c r="J82" s="39"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="94" t="str">
+        <f>RIGHT(D83:D211,4)</f>
+        <v>6793</v>
+      </c>
+      <c r="B83" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="75"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D210,4)</f>
-        <v>6683</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>94</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001300386683</v>
+        <v>1001303636793</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F83" s="23"/>
       <c r="G83" s="23">
-        <f>E83*0.35</f>
+        <f>E83*0.33</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I83" s="14">
-        <v>45</v>
-      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
         <f>RIGHT(D84:D212,4)</f>
-        <v>6793</v>
+        <v>6795</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="28">
-        <v>1001303636793</v>
+        <v>1001302596795</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23"/>
@@ -3943,17 +3936,17 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D213,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D85:D212,4)</f>
+        <v>6807</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="28">
-        <v>1001302596795</v>
+        <v>1001300366807</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
@@ -3967,76 +3960,76 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D213,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D86:D212,4)</f>
+        <v>6684</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="28">
-        <v>1001300366807</v>
+        <v>1001304506684</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G86" s="23">
-        <f>E86*0.33</f>
+        <f>E86*0.28</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="H86" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I86" s="14">
+        <v>45</v>
+      </c>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D213,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D87:D214,4)</f>
+        <v>6787</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="28">
-        <v>1001304506684</v>
+        <v>1001300456787</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="23">
-        <f>E87*0.28</f>
+        <f>E87*0.33</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I87" s="14">
-        <v>45</v>
-      </c>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
         <f>RIGHT(D88:D215,4)</f>
-        <v>6787</v>
+        <v>6788</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D88" s="28">
-        <v>1001300456787</v>
+        <v>1001300456788</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>E88*0.33</f>
+        <f>E88*1</f>
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
@@ -4046,16 +4039,16 @@
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
         <f>RIGHT(D89:D216,4)</f>
-        <v>6788</v>
+        <v>6790</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="28">
-        <v>1001300456788</v>
+        <v>1001300366790</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23"/>
@@ -4069,132 +4062,132 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D217,4)</f>
-        <v>6790</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>101</v>
+        <f>RIGHT(D90:D215,4)</f>
+        <v>6689</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>100</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001300366790</v>
+        <v>1001303986689</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="23"/>
+      <c r="F90" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G90" s="23">
-        <f>E90*1</f>
+        <f>E90*0.35</f>
         <v>0</v>
       </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="H90" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I90" s="14">
+        <v>45</v>
+      </c>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
         <f>RIGHT(D91:D216,4)</f>
-        <v>6689</v>
+        <v>6791</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001303986689</v>
+        <v>1001304096791</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F91" s="23"/>
       <c r="G91" s="23">
-        <f>E91*0.35</f>
+        <f>E91*0.33</f>
         <v>0</v>
       </c>
-      <c r="H91" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I91" s="14">
-        <v>45</v>
-      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
         <f>RIGHT(D92:D217,4)</f>
-        <v>6791</v>
+        <v>5341</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>26</v>
+        <v>102</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D92" s="28">
-        <v>1001304096791</v>
+        <v>1001053985341</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="23"/>
+      <c r="F92" s="23">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="G92" s="23">
-        <f>E92*0.33</f>
+        <f>E92*1</f>
         <v>0</v>
       </c>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+      <c r="H92" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I92" s="14">
+        <v>45</v>
+      </c>
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
         <f>RIGHT(D93:D218,4)</f>
-        <v>5341</v>
+        <v>6459</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>23</v>
+        <v>103</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D93" s="28">
-        <v>1001053985341</v>
+        <v>1001214196459</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23">
-        <v>0.71250000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="G93" s="23">
-        <f>E93*1</f>
+        <f>E93*F93</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="I93" s="14">
-        <v>45</v>
-      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
         <f>RIGHT(D94:D219,4)</f>
-        <v>6459</v>
+        <v>6586</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001214196459</v>
+        <v>1001215576586</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F94" s="23"/>
       <c r="G94" s="23">
-        <f>E94*F94</f>
+        <f>E94*0.09</f>
         <v>0</v>
       </c>
       <c r="H94" s="14"/>
@@ -4203,17 +4196,17 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D220,4)</f>
-        <v>6586</v>
+        <f>RIGHT(D95:D217,4)</f>
+        <v>6228</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="28">
-        <v>1001215576586</v>
+        <v>1001225416228</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23"/>
@@ -4227,213 +4220,219 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D218,4)</f>
-        <v>6228</v>
-      </c>
-      <c r="B96" s="64" t="s">
+        <f>RIGHT(D96:D217,4)</f>
+        <v>5544</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="28">
+        <v>1001051875544</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="G96" s="23">
+        <f>E96*1</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I96" s="14">
+        <v>45</v>
+      </c>
+      <c r="J96" s="39"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="94" t="str">
+        <f t="shared" ref="A97:A102" si="1">RIGHT(D97:D219,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B97" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C97" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="28">
-        <v>1001225416228</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23">
-        <f>E96*0.09</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="39"/>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D218,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>23</v>
-      </c>
       <c r="D97" s="28">
-        <v>1001051875544</v>
+        <v>1001301876697</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="23">
-        <v>0.85</v>
+        <v>0.35</v>
       </c>
       <c r="G97" s="23">
-        <f>E97*1</f>
+        <f>E97*0.35</f>
         <v>0</v>
       </c>
       <c r="H97" s="14">
-        <v>5.0999999999999996</v>
+        <v>2.8</v>
       </c>
       <c r="I97" s="14">
         <v>45</v>
       </c>
       <c r="J97" s="39"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D220,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B98" s="27" t="s">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B98" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="75"/>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>5706</v>
+      </c>
+      <c r="B99" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="28">
-        <v>1001301876697</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G98" s="23">
-        <f>E98*0.35</f>
+      <c r="D99" s="28">
+        <v>1001061975706</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G99" s="23">
+        <f>E99*0.25</f>
         <v>0</v>
       </c>
-      <c r="H98" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I98" s="14">
-        <v>45</v>
-      </c>
-      <c r="J98" s="39"/>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D221,4)</f>
-        <v/>
-      </c>
-      <c r="B99" s="74" t="s">
+      <c r="H99" s="14">
+        <v>2</v>
+      </c>
+      <c r="I99" s="14">
+        <v>120</v>
+      </c>
+      <c r="J99" s="39"/>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>6454</v>
+      </c>
+      <c r="B100" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="75"/>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D222,4)</f>
-        <v>5706</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001061975706</v>
+        <v>1001201976454</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G100" s="23">
-        <f>E100*0.25</f>
+        <f>E100*0.1</f>
         <v>0</v>
       </c>
       <c r="H100" s="14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I100" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D223,4)</f>
-        <v>6454</v>
+        <f t="shared" si="1"/>
+        <v>6222</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001201976454</v>
+        <v>1001205386222</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F101" s="23"/>
       <c r="G101" s="23">
-        <f>E101*0.1</f>
+        <f>E101*0.09</f>
         <v>0</v>
       </c>
-      <c r="H101" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I101" s="14">
-        <v>60</v>
-      </c>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
       <c r="J101" s="39"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D224,4)</f>
-        <v>6222</v>
+        <f t="shared" si="1"/>
+        <v>5931</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001205386222</v>
+        <v>1001060755931</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="23">
+        <v>0.22</v>
+      </c>
       <c r="G102" s="23">
-        <f>E102*0.09</f>
+        <f>E102*0.22</f>
         <v>0</v>
       </c>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
+      <c r="H102" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="I102" s="14">
+        <v>120</v>
+      </c>
       <c r="J102" s="39"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D225,4)</f>
-        <v>5931</v>
+        <f>RIGHT(D103:D226,4)</f>
+        <v>5708</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>26</v>
+        <v>113</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D103" s="28">
-        <v>1001060755931</v>
+        <v>1001063145708</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23">
-        <v>0.22</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="G103" s="23">
-        <f>E103*0.22</f>
+        <f>E103*1</f>
         <v>0</v>
       </c>
       <c r="H103" s="14">
-        <v>1.76</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I103" s="14">
         <v>120</v>
@@ -4443,51 +4442,45 @@
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
         <f>RIGHT(D104:D227,4)</f>
-        <v>5708</v>
+        <v>1146</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D104" s="28">
-        <v>1001063145708</v>
+        <v>1001061971146</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="23">
-        <v>0.51249999999999996</v>
-      </c>
+      <c r="F104" s="23"/>
       <c r="G104" s="23">
-        <f>E104*1</f>
+        <f>E104</f>
         <v>0</v>
       </c>
-      <c r="H104" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I104" s="14">
-        <v>120</v>
-      </c>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D228,4)</f>
-        <v>1146</v>
+        <f>RIGHT(D105:D227,4)</f>
+        <v>6834</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001061971146</v>
+        <v>1001203146834</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23"/>
       <c r="G105" s="23">
-        <f>E105</f>
+        <f>E105*0.1</f>
         <v>0</v>
       </c>
       <c r="H105" s="14"/>
@@ -4497,21 +4490,23 @@
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
         <f>RIGHT(D106:D228,4)</f>
-        <v>6834</v>
+        <v>6448</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001203146834</v>
+        <v>1001234146448</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G106" s="23">
-        <f>E106*0.1</f>
+        <f>F106*E106</f>
         <v>0</v>
       </c>
       <c r="H106" s="14"/>
@@ -4521,20 +4516,20 @@
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
         <f>RIGHT(D107:D229,4)</f>
-        <v>6448</v>
+        <v>6221</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001234146448</v>
+        <v>1001205376221</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G107" s="23">
         <f>F107*E107</f>
@@ -4546,21 +4541,21 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D230,4)</f>
-        <v>6221</v>
+        <f>RIGHT(D108:D229,4)</f>
+        <v>5679</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001205376221</v>
+        <v>1001190765679</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="23">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="G108" s="23">
         <f>F108*E108</f>
@@ -4572,288 +4567,288 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D230,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D109:D231,4)</f>
+        <v>4993</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001190765679</v>
+        <v>1001060764993</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G109" s="23">
-        <f>F109*E109</f>
+        <f>E109*0.25</f>
         <v>0</v>
       </c>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="H109" s="14">
+        <v>2</v>
+      </c>
+      <c r="I109" s="14">
+        <v>120</v>
+      </c>
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
         <f>RIGHT(D110:D232,4)</f>
-        <v>4993</v>
+        <v>3684</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001060764993</v>
+        <v>1001062353684</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
         <v>0.25</v>
       </c>
       <c r="G110" s="23">
-        <f>E110*0.25</f>
+        <f>F110*E110</f>
         <v>0</v>
       </c>
-      <c r="H110" s="14">
-        <v>2</v>
-      </c>
-      <c r="I110" s="14">
-        <v>120</v>
-      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
       <c r="J110" s="39"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D233,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D111:D232,4)</f>
+        <v>5682</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001062353684</v>
+        <v>1001193115682</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G111" s="23">
-        <f>F111*E111</f>
+        <f>E111*0.12</f>
         <v>0</v>
       </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
+      <c r="H111" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I111" s="14">
+        <v>60</v>
+      </c>
       <c r="J111" s="39"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D233,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D112:D235,4)</f>
+        <v>4117</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D112" s="28">
-        <v>1001193115682</v>
+        <v>1001062504117</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.12</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G112" s="23">
-        <f>E112*0.12</f>
+        <f>E112*1</f>
         <v>0</v>
       </c>
       <c r="H112" s="14">
-        <v>0.96</v>
+        <v>3.9</v>
       </c>
       <c r="I112" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J112" s="39"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
         <f>RIGHT(D113:D236,4)</f>
-        <v>4117</v>
+        <v>3680</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D113" s="28">
-        <v>1001062504117</v>
+        <v>1001062353680</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="23">
-        <v>0.48749999999999999</v>
-      </c>
+      <c r="F113" s="23"/>
       <c r="G113" s="23">
-        <f>E113*1</f>
+        <f>E113</f>
         <v>0</v>
       </c>
-      <c r="H113" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I113" s="14">
-        <v>120</v>
-      </c>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
       <c r="J113" s="39"/>
     </row>
     <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D237,4)</f>
-        <v>3680</v>
+        <f>RIGHT(D114:D236,4)</f>
+        <v>5483</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>23</v>
+        <v>124</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001062353680</v>
+        <v>1001062505483</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="23"/>
+      <c r="F114" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G114" s="23">
-        <f>E114</f>
+        <f>E114*0.25</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
+      <c r="H114" s="14">
+        <v>2</v>
+      </c>
+      <c r="I114" s="14">
+        <v>120</v>
+      </c>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="94" t="str">
         <f>RIGHT(D115:D237,4)</f>
-        <v>5483</v>
+        <v>6453</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001062505483</v>
+        <v>1001202506453</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G115" s="23">
-        <f>E115*0.25</f>
+        <f>E115*0.1</f>
         <v>0</v>
       </c>
       <c r="H115" s="14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I115" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="94" t="str">
         <f>RIGHT(D116:D238,4)</f>
-        <v>6453</v>
-      </c>
-      <c r="B116" s="27" t="s">
+        <v/>
+      </c>
+      <c r="B116" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="75"/>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="94" t="str">
+        <f>RIGHT(D117:D242,4)</f>
+        <v>6470</v>
+      </c>
+      <c r="B117" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="28">
-        <v>1001202506453</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="G116" s="23">
-        <f>E116*0.1</f>
+      <c r="C117" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="80">
+        <v>1001092436470</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23">
+        <f>E117*1</f>
         <v>0</v>
       </c>
-      <c r="H116" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I116" s="14">
-        <v>60</v>
-      </c>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D239,4)</f>
-        <v/>
-      </c>
-      <c r="B117" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="75"/>
-    </row>
-    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="39"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
         <f>RIGHT(D118:D243,4)</f>
-        <v>6470</v>
+        <v>6495</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D118" s="80">
-        <v>1001092436470</v>
+        <v>1001092436495</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="23"/>
+      <c r="F118" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G118" s="23">
-        <f>E118*1</f>
+        <f>F118*E118</f>
         <v>0</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="39"/>
     </row>
-    <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
         <f>RIGHT(D119:D244,4)</f>
-        <v>6495</v>
+        <v>7035</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="C119" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="80">
-        <v>1001092436495</v>
+        <v>1001095227035</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G119" s="23">
         <f>F119*E119</f>
@@ -4862,155 +4857,155 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="39"/>
-    </row>
-    <row r="120" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K119" s="82"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D245,4)</f>
-        <v>7035</v>
+        <f>RIGHT(D120:D243,4)</f>
+        <v>6866</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D120" s="80">
-        <v>1001095227035</v>
+        <v>1001095716866</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F120" s="23"/>
       <c r="G120" s="23">
-        <f>F120*E120</f>
+        <f>E120*1</f>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="39"/>
-      <c r="K120" s="82"/>
-    </row>
-    <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D244,4)</f>
-        <v>6866</v>
-      </c>
-      <c r="B121" s="29" t="s">
+        <f>RIGHT(D121:D240,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="51">
+        <v>1001094053215</v>
+      </c>
+      <c r="E121" s="24"/>
+      <c r="F121" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G121" s="23">
+        <f>E121*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I121" s="14">
+        <v>60</v>
+      </c>
+      <c r="J121" s="39"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="94" t="str">
+        <f>RIGHT(D122:D243,4)</f>
+        <v/>
+      </c>
+      <c r="B122" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="80">
-        <v>1001095716866</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23">
-        <f>E121*1</f>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="74"/>
+      <c r="I122" s="74"/>
+      <c r="J122" s="75"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="94" t="str">
+        <f>RIGHT(D123:D246,4)</f>
+        <v>6206</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="28">
+        <v>1001084216206</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G123" s="23">
+        <f>E123*0.3</f>
         <v>0</v>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="39"/>
-    </row>
-    <row r="122" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D241,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="51">
-        <v>1001094053215</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="G122" s="23">
-        <f>E122*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I122" s="14">
-        <v>60</v>
-      </c>
-      <c r="J122" s="39"/>
-    </row>
-    <row r="123" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="94" t="str">
-        <f>RIGHT(D123:D244,4)</f>
-        <v/>
-      </c>
-      <c r="B123" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
-      <c r="I123" s="74"/>
-      <c r="J123" s="75"/>
-    </row>
-    <row r="124" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I123" s="14">
+        <v>30</v>
+      </c>
+      <c r="J123" s="39"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
         <f>RIGHT(D124:D247,4)</f>
-        <v>6206</v>
+        <v>4691</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001084216206</v>
+        <v>1001083424691</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
         <v>0.3</v>
       </c>
       <c r="G124" s="23">
-        <f>E124*0.3</f>
+        <f t="shared" ref="G124:G131" si="2">F124*E124</f>
         <v>0</v>
       </c>
-      <c r="H124" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I124" s="14">
-        <v>30</v>
-      </c>
-      <c r="J124" s="39"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="93"/>
     </row>
     <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="94" t="str">
         <f>RIGHT(D125:D248,4)</f>
-        <v>4691</v>
+        <v>6200</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001083424691</v>
+        <v>1001085636200</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
         <v>0.3</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" ref="G125:G132" si="0">F125*E125</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5020,23 +5015,23 @@
     <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="94" t="str">
         <f>RIGHT(D126:D249,4)</f>
-        <v>6200</v>
+        <v>6201</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001085636200</v>
+        <v>1001225636201</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5045,24 +5040,24 @@
     </row>
     <row r="127" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="94" t="str">
-        <f>RIGHT(D127:D250,4)</f>
-        <v>6201</v>
+        <f>RIGHT(D127:D249,4)</f>
+        <v>6842</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001225636201</v>
+        <v>1001080216842</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5071,24 +5066,24 @@
     </row>
     <row r="128" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
-        <f>RIGHT(D128:D250,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D128:D249,4)</f>
+        <v>6492</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001080216842</v>
+        <v>1001084226492</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
         <v>0.3</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5097,24 +5092,24 @@
     </row>
     <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="str">
-        <f>RIGHT(D129:D250,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D129:D247,4)</f>
+        <v>6279</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C129" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001084226492</v>
+        <v>1001220286279</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5124,23 +5119,23 @@
     <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
         <f>RIGHT(D130:D248,4)</f>
-        <v>6279</v>
+        <v>4786</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C130" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001220286279</v>
+        <v>1001053944786</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5150,86 +5145,77 @@
     <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
         <f>RIGHT(D131:D249,4)</f>
-        <v>4786</v>
-      </c>
-      <c r="B131" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="35" t="s">
+        <v>6921</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001053944786</v>
+        <v>1001223296921</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
-      <c r="J131" s="93"/>
-    </row>
-    <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="94" t="str">
-        <f>RIGHT(D132:D250,4)</f>
-        <v>6921</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C132" s="33" t="s">
+        <f>RIGHT(D132:D247,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001223296921</v>
+        <v>1001223296919</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="23">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="F132" s="23"/>
       <c r="G132" s="23">
-        <f t="shared" si="0"/>
+        <f>E132*0.18</f>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
-      <c r="J132" s="39"/>
-    </row>
-    <row r="133" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J132" s="93"/>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="94" t="str">
         <f>RIGHT(D133:D248,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B133" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C133" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="28">
-        <v>1001223296919</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23">
-        <f>E133*0.18</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="93"/>
+        <v/>
+      </c>
+      <c r="B133" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="75"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="94" t="str">
-        <f>RIGHT(D134:D249,4)</f>
+        <f>RIGHT(D134:D251,4)</f>
         <v/>
       </c>
       <c r="B134" s="74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C134" s="74"/>
       <c r="D134" s="74"/>
@@ -5240,66 +5226,73 @@
       <c r="I134" s="74"/>
       <c r="J134" s="75"/>
     </row>
-    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="94" t="str">
         <f>RIGHT(D135:D252,4)</f>
-        <v/>
-      </c>
-      <c r="B135" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="75"/>
-    </row>
-    <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6314</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G135" s="23">
+        <f>E135*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="14">
+        <v>8</v>
+      </c>
+      <c r="I135" s="72">
+        <v>120</v>
+      </c>
+      <c r="J135" s="39"/>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="str">
         <f>RIGHT(D136:D253,4)</f>
-        <v>6314</v>
+        <v>6155</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1002112606314</v>
+        <v>1002115036155</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="F136" s="23"/>
       <c r="G136" s="23">
-        <f>E136*0.5</f>
+        <f>E136*0.45</f>
         <v>0</v>
       </c>
-      <c r="H136" s="14">
-        <v>8</v>
-      </c>
-      <c r="I136" s="72">
-        <v>120</v>
-      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="72"/>
       <c r="J136" s="39"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="94" t="str">
         <f>RIGHT(D137:D254,4)</f>
-        <v>6155</v>
+        <v>6157</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1002115036155</v>
+        <v>1002115056157</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23"/>
@@ -5311,168 +5304,174 @@
       <c r="I137" s="72"/>
       <c r="J137" s="39"/>
     </row>
-    <row r="138" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="94" t="str">
-        <f>RIGHT(D138:D255,4)</f>
-        <v>6157</v>
+        <f t="shared" ref="A138:A149" si="3">RIGHT(D138:D253,4)</f>
+        <v>6313</v>
       </c>
       <c r="B138" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="28">
+        <v>1002112606313</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="G138" s="23">
+        <f>E138*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="14">
+        <v>9</v>
+      </c>
+      <c r="I138" s="72">
+        <v>120</v>
+      </c>
+      <c r="J138" s="39"/>
+    </row>
+    <row r="139" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B139" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" s="28">
-        <v>1002115056157</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23">
-        <f>E138*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="72"/>
-      <c r="J138" s="39"/>
-    </row>
-    <row r="139" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="94" t="str">
-        <f t="shared" ref="A139:A150" si="1">RIGHT(D139:D254,4)</f>
-        <v>6313</v>
-      </c>
-      <c r="B139" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G139" s="23">
-        <f>E139*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="14">
-        <v>9</v>
-      </c>
-      <c r="I139" s="72">
-        <v>120</v>
-      </c>
-      <c r="J139" s="39"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
+      <c r="J139" s="75"/>
     </row>
     <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B140" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="74"/>
-      <c r="H140" s="74"/>
-      <c r="I140" s="74"/>
-      <c r="J140" s="75"/>
+        <f t="shared" si="3"/>
+        <v>4945</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G140" s="23">
+        <f>E140*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="14">
+        <v>8</v>
+      </c>
+      <c r="I140" s="72">
+        <v>120</v>
+      </c>
+      <c r="J140" s="39"/>
     </row>
     <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>4945</v>
-      </c>
-      <c r="B141" s="47" t="s">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B141" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
+      <c r="J141" s="75"/>
+    </row>
+    <row r="142" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v>4956</v>
+      </c>
+      <c r="B142" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C142" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D141" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G141" s="23">
-        <f>E141*0.5</f>
+      <c r="D142" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E142" s="84"/>
+      <c r="F142" s="85">
+        <v>0.42</v>
+      </c>
+      <c r="G142" s="85">
+        <f>E142*0.42</f>
         <v>0</v>
       </c>
-      <c r="H141" s="14">
-        <v>8</v>
-      </c>
-      <c r="I141" s="72">
+      <c r="H142" s="86">
+        <v>4.2</v>
+      </c>
+      <c r="I142" s="91">
         <v>120</v>
       </c>
-      <c r="J141" s="39"/>
-    </row>
-    <row r="142" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B142" s="74" t="s">
+      <c r="J142" s="86"/>
+      <c r="K142" s="87"/>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v>1762</v>
+      </c>
+      <c r="B143" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="74"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
-      <c r="J142" s="75"/>
-    </row>
-    <row r="143" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>4956</v>
-      </c>
-      <c r="B143" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="90" t="s">
+      <c r="C143" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E143" s="84"/>
-      <c r="F143" s="85">
+      <c r="D143" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="23">
         <v>0.42</v>
       </c>
-      <c r="G143" s="85">
+      <c r="G143" s="23">
         <f>E143*0.42</f>
         <v>0</v>
       </c>
-      <c r="H143" s="86">
+      <c r="H143" s="14">
         <v>4.2</v>
       </c>
-      <c r="I143" s="91">
+      <c r="I143" s="72">
         <v>120</v>
       </c>
-      <c r="J143" s="86"/>
-      <c r="K143" s="87"/>
-    </row>
-    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J143" s="39"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1762</v>
+        <f t="shared" si="3"/>
+        <v>1764</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C144" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="28">
-        <v>1002131151762</v>
+        <v>1002131181764</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
@@ -5490,43 +5489,30 @@
       </c>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1764</v>
-      </c>
-      <c r="B145" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G145" s="23">
-        <f>E145*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H145" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I145" s="72">
-        <v>120</v>
-      </c>
-      <c r="J145" s="39"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B145" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="74"/>
+      <c r="H145" s="74"/>
+      <c r="I145" s="74"/>
+      <c r="J145" s="75"/>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B146" s="74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C146" s="74"/>
       <c r="D146" s="74"/>
@@ -5539,138 +5525,131 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B147" s="74" t="s">
+        <f t="shared" si="3"/>
+        <v>6004</v>
+      </c>
+      <c r="B147" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="75"/>
-    </row>
-    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="24"/>
+      <c r="F147" s="23">
+        <v>1</v>
+      </c>
+      <c r="G147" s="23">
+        <f>E147*1</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="14">
+        <v>8</v>
+      </c>
+      <c r="I147" s="72">
+        <v>120</v>
+      </c>
+      <c r="J147" s="39"/>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A148" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6004</v>
+        <f t="shared" si="3"/>
+        <v>5417</v>
       </c>
       <c r="B148" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="36" t="s">
-        <v>26</v>
+      <c r="C148" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D148" s="68" t="s">
         <v>159</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148" s="23">
         <f>E148*1</f>
         <v>0</v>
       </c>
       <c r="H148" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I148" s="72">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J148" s="39"/>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5417</v>
+        <f t="shared" si="3"/>
+        <v>6019</v>
       </c>
       <c r="B149" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C149" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="68" t="s">
+      <c r="C149" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="69" t="s">
         <v>161</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" s="23">
         <f>E149*1</f>
         <v>0</v>
       </c>
       <c r="H149" s="14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I149" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J149" s="39"/>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6019</v>
-      </c>
-      <c r="B150" s="47" t="s">
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="77"/>
+      <c r="B150" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C150" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23">
-        <v>1</v>
-      </c>
-      <c r="G150" s="23">
-        <f>E150*1</f>
+      <c r="C150" s="16"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="17">
+        <f>SUM(E5:E149)</f>
         <v>0</v>
       </c>
-      <c r="H150" s="14">
-        <v>12</v>
-      </c>
-      <c r="I150" s="72">
-        <v>120</v>
-      </c>
-      <c r="J150" s="39"/>
-    </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="77"/>
-      <c r="B151" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="17">
-        <f>SUM(E5:E150)</f>
+      <c r="F150" s="17">
+        <f>SUM(F10:F149)</f>
+        <v>38.255833333333342</v>
+      </c>
+      <c r="G150" s="17">
+        <f>SUM(G11:G149)</f>
         <v>0</v>
       </c>
-      <c r="F151" s="17">
-        <f>SUM(F10:F150)</f>
-        <v>38.255833333333342</v>
-      </c>
-      <c r="G151" s="17">
-        <f>SUM(G11:G150)</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="17">
-        <f>SUM(H10:H147)</f>
+      <c r="H150" s="17">
+        <f>SUM(H10:H146)</f>
         <v>144.24999999999994</v>
       </c>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
-    </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="53"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="52"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" s="53"/>
       <c r="C152" s="18"/>
       <c r="D152" s="52"/>
@@ -20900,27 +20879,17 @@
       <c r="I1674" s="20"/>
       <c r="J1674" s="21"/>
     </row>
-    <row r="1675" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1675" s="53"/>
-      <c r="C1675" s="18"/>
-      <c r="D1675" s="52"/>
-      <c r="F1675" s="19"/>
-      <c r="G1675" s="19"/>
-      <c r="H1675" s="20"/>
-      <c r="I1675" s="20"/>
-      <c r="J1675" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:J151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B144" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B143" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D148:D150" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D147:D149" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
@@ -20946,24 +20915,24 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -20974,13 +20943,13 @@
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -20991,33 +20960,33 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -21028,134 +20997,134 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -21171,262 +21140,262 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="61"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C63" s="81"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C86" s="61"/>
     </row>
